--- a/precios.xlsx
+++ b/precios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proyectos\PresupuestosAutomatizados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C423445-1E8B-4818-B00E-BE2F2A1CA70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0676AF-CCBD-4953-9D10-2CE4F5114C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6750" yWindow="2880" windowWidth="21600" windowHeight="11385" xr2:uid="{F45DF40F-4638-424B-A05A-50794D835320}"/>
   </bookViews>
@@ -532,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A6DD2C4-73C0-4C56-88C6-63385D84566F}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
